--- a/medicine/Enfance/Folio_Junior/Folio_Junior.xlsx
+++ b/medicine/Enfance/Folio_Junior/Folio_Junior.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Folio Junior est une collection française de littérature d'enfance et de jeunesse des éditions Gallimard, créée en 1977.
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Créée en 1977 par Pierre Marchand, l'objectif de la collection Folio Junior est de publier au format de poche des livres destinés à un lectorat âgé de huit à seize ans. Le nom de la collection renvoie à la collection de poche phare de la maison d'édition : la collection Folio-Gallimard.
 Le premier titre de la collection est La Maison qui s'envole de Claude Roy. La collection réédite ensuite des classiques de la littérature de jeunesse, surtout anglo-saxonne, et des nouveautés d'auteurs français et internationaux. La couverture de chaque titre comporte une illustration en couleurs, et l'intérieur est souvent illustré (en noir et blanc).
@@ -548,7 +562,9 @@
           <t>Sélection de titres parus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Jean-Philippe Arrou-Vignod, P-P Cul-Vert
@@ -628,7 +644,9 @@
           <t>Quelques illustrateurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Roger Blachon
